--- a/data/elssp_comorbidities.xlsx
+++ b/data/elssp_comorbidities.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eec35/Desktop/Git/ELSSP/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eec35/Library/Containers/com.microsoft.Excel/Data/Desktop/Git/ELSSP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD94623-E53D-9A43-A17A-E9647CABE087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47F45B1-AC0E-2849-B54E-FA0A2A16D142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="1480" windowWidth="15040" windowHeight="15380" xr2:uid="{A5E4944C-42AC-1A4A-A0D5-0B7CF177ACC7}"/>
+    <workbookView xWindow="13360" yWindow="900" windowWidth="15040" windowHeight="15380" xr2:uid="{A5E4944C-42AC-1A4A-A0D5-0B7CF177ACC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
   <si>
     <t>VIHI_ID</t>
   </si>
@@ -614,6 +614,9 @@
   <si>
     <t>pulmonaryarterystenosis</t>
   </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
@@ -983,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB18FB46-FD2D-F045-AC52-2F50E6F4ED9C}">
-  <dimension ref="A1:CN101"/>
+  <dimension ref="A1:CN102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="G63" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <f>E2+F2+G2+H2+C2</f>
+        <f t="shared" ref="I2:I33" si="0">E2+F2+G2+H2+C2</f>
         <v>5</v>
       </c>
       <c r="J2">
@@ -1574,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <f>E3+F3+G3+H3+C3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J3">
@@ -1853,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <f>E4+F4+G4+H4+C4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J4">
@@ -2132,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <f>E5+F5+G5+H5+C5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J5">
@@ -2411,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <f>E6+F6+G6+H6+C6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J6">
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>E7+F7+G7+H7+C7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J7">
@@ -2969,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>E8+F8+G8+H8+C8</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J8">
@@ -3248,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>E9+F9+G9+H9+C9</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J9">
@@ -3527,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>E10+F10+G10+H10+C10</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J10">
@@ -3806,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>E11+F11+G11+H11+C11</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J11">
@@ -4085,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>E12+F12+G12+H12+C12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J12">
@@ -4364,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>E13+F13+G13+H13+C13</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J13">
@@ -4643,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>E14+F14+G14+H14+C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J14">
@@ -4922,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>E15+F15+G15+H15+C15</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J15">
@@ -5201,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>E16+F16+G16+H16+C16</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J16">
@@ -5480,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>E17+F17+G17+H17+C17</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J17">
@@ -5759,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>E18+F18+G18+H18+C18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J18">
@@ -6038,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>E19+F19+G19+H19+C19</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J19">
@@ -6317,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f>E20+F20+G20+H20+C20</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J20">
@@ -6596,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>E21+F21+G21+H21+C21</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J21">
@@ -6875,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>E22+F22+G22+H22+C22</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J22">
@@ -7154,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f>E23+F23+G23+H23+C23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J23">
@@ -7433,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <f>E24+F24+G24+H24+C24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J24">
@@ -7712,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f>E25+F25+G25+H25+C25</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J25">
@@ -7991,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f>E26+F26+G26+H26+C26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J26">
@@ -8270,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f>E27+F27+G27+H27+C27</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J27">
@@ -8549,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f>E28+F28+G28+H28+C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -8828,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f>E29+F29+G29+H29+C29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J29">
@@ -9107,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f>E30+F30+G30+H30+C30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J30">
@@ -9386,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f>E31+F31+G31+H31+C31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J31">
@@ -9665,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f>E32+F32+G32+H32+C32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J32">
@@ -9944,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <f>E33+F33+G33+H33+C33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33">
@@ -10223,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <f>E34+F34+G34+H34+C34</f>
+        <f t="shared" ref="I34:I65" si="1">E34+F34+G34+H34+C34</f>
         <v>1</v>
       </c>
       <c r="J34">
@@ -10502,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f>E35+F35+G35+H35+C35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35">
@@ -10781,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <f>E36+F36+G36+H36+C36</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J36">
@@ -11060,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <f>E37+F37+G37+H37+C37</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J37">
@@ -11339,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f>E38+F38+G38+H38+C38</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J38">
@@ -11618,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f>E39+F39+G39+H39+C39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39">
@@ -11897,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f>E40+F40+G40+H40+C40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40">
@@ -12176,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>E41+F41+G41+H41+C41</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J41">
@@ -12455,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f>E42+F42+G42+H42+C42</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J42">
@@ -12734,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f>E43+F43+G43+H43+C43</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J43">
@@ -13013,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>E44+F44+G44+H44+C44</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J44">
@@ -13292,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f>E45+F45+G45+H45+C45</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J45">
@@ -13571,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f>E46+F46+G46+H46+C46</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J46">
@@ -13850,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f>E47+F47+G47+H47+C47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -14129,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>E48+F48+G48+H48+C48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48">
@@ -14408,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f>E49+F49+G49+H49+C49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -14687,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f>E50+F50+G50+H50+C50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50">
@@ -14966,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f>E51+F51+G51+H51+C51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -15245,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f>E52+F52+G52+H52+C52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52">
@@ -15524,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <f>E53+F53+G53+H53+C53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -15803,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f>E54+F54+G54+H54+C54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J54">
@@ -16082,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <f>E55+F55+G55+H55+C55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J55">
@@ -16343,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <f>E56+F56+G56+H56+C56</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J56">
@@ -16622,7 +16625,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f>E57+F57+G57+H57+C57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J57">
@@ -16901,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <f>E58+F58+G58+H58+C58</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J58">
@@ -17180,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <f>E59+F59+G59+H59+C59</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J59">
@@ -17459,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f>E60+F60+G60+H60+C60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -17738,7 +17741,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <f>E61+F61+G61+H61+C61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J61">
@@ -18017,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <f>E62+F62+G62+H62+C62</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J62">
@@ -18296,7 +18299,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <f>E63+F63+G63+H63+C63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J63">
@@ -18575,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <f>E64+F64+G64+H64+C64</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J64">
@@ -18854,7 +18857,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f>E65+F65+G65+H65+C65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J65">
@@ -19133,7 +19136,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <f>E66+F66+G66+H66+C66</f>
+        <f t="shared" ref="I66:I97" si="2">E66+F66+G66+H66+C66</f>
         <v>0</v>
       </c>
       <c r="J66">
@@ -19412,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f>E67+F67+G67+H67+C67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67">
@@ -19691,7 +19694,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <f>E68+F68+G68+H68+C68</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J68">
@@ -19970,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <f>E69+F69+G69+H69+C69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J69">
@@ -20249,7 +20252,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f>E70+F70+G70+H70+C70</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -20528,7 +20531,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f>E71+F71+G71+H71+C71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71">
@@ -20807,7 +20810,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <f>E72+F72+G72+H72+C72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J72">
@@ -21086,7 +21089,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <f>E73+F73+G73+H73+C73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J73">
@@ -21365,7 +21368,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <f>E74+F74+G74+H74+C74</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J74">
@@ -21644,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <f>E75+F75+G75+H75+C75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J75">
@@ -21923,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <f>E76+F76+G76+H76+C76</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J76">
@@ -22202,7 +22205,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <f>E77+F77+G77+H77+C77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J77">
@@ -22481,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <f>E78+F78+G78+H78+C78</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J78">
@@ -22760,7 +22763,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <f>E79+F79+G79+H79+C79</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J79">
@@ -23039,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f>E80+F80+G80+H80+C80</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J80">
@@ -23318,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="1">
-        <f>E81+F81+G81+H81+C81</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J81">
@@ -23597,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <f>E82+F82+G82+H82+C82</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J82">
@@ -23876,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <f>E83+F83+G83+H83+C83</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J83">
@@ -24155,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <f>E84+F84+G84+H84+C84</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J84">
@@ -24434,7 +24437,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <f>E85+F85+G85+H85+C85</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J85">
@@ -24713,7 +24716,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <f>E86+F86+G86+H86+C86</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J86">
@@ -24992,7 +24995,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <f>E87+F87+G87+H87+C87</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J87">
@@ -25271,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="1">
-        <f>E88+F88+G88+H88+C88</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J88">
@@ -25550,7 +25553,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <f>E89+F89+G89+H89+C89</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J89">
@@ -25829,7 +25832,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="1">
-        <f>E90+F90+G90+H90+C90</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J90">
@@ -26108,7 +26111,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <f>E91+F91+G91+H91+C91</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J91">
@@ -26387,7 +26390,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="1">
-        <f>E92+F92+G92+H92+C92</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J92">
@@ -26666,7 +26669,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="1">
-        <f>E93+F93+G93+H93+C93</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J93">
@@ -26945,7 +26948,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="1">
-        <f>E94+F94+G94+H94+C94</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J94">
@@ -27224,7 +27227,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="1">
-        <f>E95+F95+G95+H95+C95</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J95">
@@ -27503,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="1">
-        <f>E96+F96+G96+H96+C96</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J96">
@@ -27782,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="1">
-        <f>E97+F97+G97+H97+C97</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J97">
@@ -28061,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="1">
-        <f>E98+F98+G98+H98+C98</f>
+        <f t="shared" ref="I98:I129" si="3">E98+F98+G98+H98+C98</f>
         <v>0</v>
       </c>
       <c r="J98">
@@ -28340,7 +28343,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="1">
-        <f>E99+F99+G99+H99+C99</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J99">
@@ -28607,6 +28610,339 @@
       </c>
       <c r="B101">
         <v>35.233333330000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>194</v>
+      </c>
+      <c r="K102">
+        <f>SUM(K2:K99)</f>
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <f t="shared" ref="L102:BW102" si="4">SUM(L2:L99)</f>
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ102">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AK102">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AL102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AM102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AN102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AO102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AP102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AQ102">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AR102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AS102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AT102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AU102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AV102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AW102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AX102">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AY102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AZ102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BA102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BB102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BC102">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="BD102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BE102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BF102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BG102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BH102">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BI102">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BJ102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BK102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BL102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BM102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BN102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BO102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BP102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BQ102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BR102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BS102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BT102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BU102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BV102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BW102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BX102">
+        <f t="shared" ref="BX102:CN102" si="5">SUM(BX2:BX99)</f>
+        <v>1</v>
+      </c>
+      <c r="BY102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BZ102">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="CA102">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="CB102">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="CC102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CD102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CE102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CF102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CG102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CH102">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="CI102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CJ102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CK102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CL102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CM102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CN102">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
